--- a/Doc/ExcelConfig/Datas/活动/TActivityGiftCommond.xlsx
+++ b/Doc/ExcelConfig/Datas/活动/TActivityGiftCommond.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>##</t>
   </si>
@@ -44,9 +44,6 @@
     <t>IsValid</t>
   </si>
   <si>
-    <t>GiftCommond</t>
-  </si>
-  <si>
     <t>GiftCount</t>
   </si>
   <si>
@@ -62,15 +59,15 @@
     <t>##type</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>是否有效</t>
   </si>
   <si>
-    <t>礼包口令</t>
-  </si>
-  <si>
     <t>礼包数量</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
   </si>
   <si>
     <t>道具数量</t>
-  </si>
-  <si>
-    <t>HappyNewYear</t>
   </si>
 </sst>
 </file>
@@ -758,16 +749,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,20 +780,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1111,27 +1102,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="6.58333333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.9166666666667" customWidth="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="8.75" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="9.91666666666667" customWidth="1"/>
-    <col min="7" max="7" width="15.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="14.4166666666667" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="9.91666666666667" customWidth="1"/>
+    <col min="6" max="6" width="15.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="14.4166666666667" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,514 +1134,481 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="17.5" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="17.5" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:9">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="9">
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
         <v>100</v>
       </c>
-      <c r="G5" s="10">
+      <c r="F5" s="14">
         <v>44735</v>
       </c>
-      <c r="H5" s="10">
+      <c r="G5" s="14">
+        <v>45473</v>
+      </c>
+      <c r="H5" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="8:9">
+      <c r="H6" s="15">
+        <v>10002</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="15">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14">
+        <v>44735</v>
+      </c>
+      <c r="G7" s="14">
+        <v>45473</v>
+      </c>
+      <c r="H7" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="H8" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="H9" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="H10" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="H11" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="H12" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="H13" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="H14" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="H15" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="H16" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="15">
+        <v>110</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14">
+        <v>44735</v>
+      </c>
+      <c r="G17" s="14">
         <v>44742</v>
       </c>
-      <c r="I5" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="9:10">
-      <c r="I6" s="11">
-        <v>10002</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="11">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="H17" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="H18" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="H19" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="H20" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="H21" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="H22" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="H23" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="H24" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="H25" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="H26" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="H27" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="H28" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="H29" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="H30" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="H31" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="H32" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="15">
+        <v>270</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="14">
         <v>44735</v>
       </c>
-      <c r="H7" s="10">
+      <c r="G33" s="14">
         <v>44742</v>
       </c>
-      <c r="I7" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="I8" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="I9" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="I10" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="I11" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="I12" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="I13" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="I14" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="I15" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="I16" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="11">
-        <v>110</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11">
-        <v>1</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10">
-        <v>44735</v>
-      </c>
-      <c r="H17" s="10">
-        <v>44742</v>
-      </c>
-      <c r="I17" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="I18" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="I19" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="I20" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="I21" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="I22" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="I23" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="I24" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="I25" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="I26" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="I27" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="I28" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="I29" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="I30" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="I31" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="I32" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="11">
-        <v>270</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11">
-        <v>1</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="10">
-        <v>44735</v>
-      </c>
-      <c r="H33" s="10">
-        <v>44742</v>
-      </c>
-      <c r="I33" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="I34" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="I35" s="11">
-        <v>10001</v>
-      </c>
-      <c r="J35">
+      <c r="H33" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="H34" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="H35" s="15">
+        <v>10001</v>
+      </c>
+      <c r="I35">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/ExcelConfig/Datas/活动/TActivityGiftCommond.xlsx
+++ b/Doc/ExcelConfig/Datas/活动/TActivityGiftCommond.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>##</t>
   </si>
@@ -41,12 +41,18 @@
     </r>
   </si>
   <si>
+    <t>Des</t>
+  </si>
+  <si>
     <t>IsValid</t>
   </si>
   <si>
     <t>GiftCount</t>
   </si>
   <si>
+    <t>BindMonthIndex</t>
+  </si>
+  <si>
     <t>ActivityStartTime</t>
   </si>
   <si>
@@ -86,7 +92,7 @@
     <t>礼包Id</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>礼包描述</t>
   </si>
   <si>
     <t>是否有效</t>
@@ -95,6 +101,9 @@
     <t>礼包数量</t>
   </si>
   <si>
+    <t>显示绑定的月份</t>
+  </si>
+  <si>
     <t>开启时间</t>
   </si>
   <si>
@@ -105,6 +114,12 @@
   </si>
   <si>
     <t>道具数量</t>
+  </si>
+  <si>
+    <t>五一活动</t>
+  </si>
+  <si>
+    <t>元旦快乐</t>
   </si>
 </sst>
 </file>
@@ -739,49 +754,52 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1102,513 +1120,570 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="2" width="13.9166666666667" customWidth="1"/>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="22.8333333333333" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.75" customWidth="1"/>
     <col min="5" max="5" width="9.91666666666667" customWidth="1"/>
-    <col min="6" max="6" width="15.0833333333333" customWidth="1"/>
-    <col min="7" max="7" width="14.4166666666667" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="16.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.0833333333333" customWidth="1"/>
+    <col min="8" max="8" width="14.4166666666667" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="17.5" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="17.5" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:9">
-      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="9" t="s">
+      <c r="H2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:10">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
+      <c r="C3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="H4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
         <v>100</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11">
         <v>44735</v>
       </c>
-      <c r="G5" s="14">
+      <c r="H5" s="11">
         <v>45473</v>
       </c>
-      <c r="H5" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="8:9">
-      <c r="H6" s="15">
+      <c r="I5" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="9:10">
+      <c r="I6" s="12">
         <v>10002</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="15">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="12">
         <v>10</v>
       </c>
-      <c r="D7" s="15">
-        <v>1</v>
-      </c>
-      <c r="F7" s="14">
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="11">
         <v>44735</v>
       </c>
-      <c r="G7" s="14">
+      <c r="H7" s="11">
         <v>45473</v>
       </c>
-      <c r="H7" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="H8" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="H9" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="H10" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="H11" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="H12" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="H13" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="H14" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="H15" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="H16" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="15">
+      <c r="I7" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="I8" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="I9" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="I10" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="I11" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="I12" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="I13" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="I14" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="I15" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="I16" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="12">
         <v>110</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15">
-        <v>1</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14">
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17" s="11">
         <v>44735</v>
       </c>
-      <c r="G17" s="14">
+      <c r="H17" s="11">
         <v>44742</v>
       </c>
-      <c r="H17" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="H18" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="H19" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="H20" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="H21" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="H22" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="H23" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="H24" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="H25" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="H26" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="H27" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="H28" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="H29" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="H30" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="H31" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="H32" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="15">
+      <c r="I17" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="I18" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="I19" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="I20" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="I21" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="I22" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="I23" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="I24" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="I25" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="I26" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="I27" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="I28" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="I29" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="I30" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="I31" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="I32" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="12">
         <v>270</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15">
-        <v>1</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="14">
+      <c r="C33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" s="11">
         <v>44735</v>
       </c>
-      <c r="G33" s="14">
+      <c r="H33" s="11">
         <v>44742</v>
       </c>
-      <c r="H33" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="H34" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="H35" s="15">
-        <v>10001</v>
-      </c>
-      <c r="I35">
+      <c r="I33" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="I34" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="I35" s="12">
+        <v>10001</v>
+      </c>
+      <c r="J35">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
